--- a/TimeCom/BigO-Graph.xlsx
+++ b/TimeCom/BigO-Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devlopment\ARYA\TimeCom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D11E4C-C07D-42ED-9EC0-6BBC6A390173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C57BB-F2B6-4FAA-B870-0229753FDF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="12" xr2:uid="{916A8EE7-BF0B-4B23-B53B-0439228BF508}"/>
   </bookViews>
@@ -11943,10 +11943,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12686,8 +12682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7CA944-DC76-4982-89C3-126686958FE2}">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12829,7 +12825,7 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J2:J66" si="7">(2^A3)*A3</f>
+        <f t="shared" ref="J3:J66" si="7">(2^A3)*A3</f>
         <v>8</v>
       </c>
       <c r="K3">
@@ -12885,11 +12881,11 @@
         <v>24</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K3:K66" si="8">(2^(A4/2))*A4</f>
+        <f t="shared" ref="K4:K66" si="8">(2^(A4/2))*A4</f>
         <v>8.4852813742385695</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L3:L66" si="9">(A4^2)*LOG(A4,2)</f>
+        <f t="shared" ref="L4:L66" si="9">(A4^2)*LOG(A4,2)</f>
         <v>14.264662506490406</v>
       </c>
       <c r="M4">
@@ -23794,7 +23790,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C68" si="0">LOG(B5,2)</f>
+        <f t="shared" ref="C5:C14" si="0">LOG(B5,2)</f>
         <v>2.3219280948873622</v>
       </c>
     </row>
